--- a/WBSのひな型.xlsx
+++ b/WBSのひな型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cre\Develop_Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463AF62-FA22-49E2-99BD-E7A9170CDB67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B7E86-D8C8-49C4-B028-7A71D45FE3C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8580" yWindow="1668" windowWidth="21600" windowHeight="11292" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -250,6 +250,14 @@
     <rPh sb="3" eb="4">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/2/29</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -257,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +281,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +307,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -354,13 +392,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,12 +431,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="名前" xfId="1" xr:uid="{C462E21F-6912-46FF-9363-9C32E41FF28D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC00000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -693,19 +772,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE82B5B-7509-4E2A-A973-D9D8AB997021}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.8984375" customWidth="1"/>
-    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -716,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,8 +821,18 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="7">
+        <v>45017</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45106</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -746,8 +840,17 @@
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="7">
+        <v>45107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -757,8 +860,18 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="9">
+        <v>45127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9">
+        <v>45216</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -766,8 +879,17 @@
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="9">
+        <v>45217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -777,8 +899,18 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="6">
+        <v>45237</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45326</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -786,8 +918,17 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="6">
+        <v>45327</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -797,8 +938,18 @@
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="6">
+        <v>45347</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45466</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -806,8 +957,17 @@
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="6">
+        <v>45467</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -817,8 +977,17 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="6">
+        <v>45497</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -826,8 +995,17 @@
       <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="6">
+        <v>45597</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -835,14 +1013,32 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="6">
+        <v>45617</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45746</v>
       </c>
     </row>
   </sheetData>
